--- a/Manual_Testing/Assignments/Module2/practicals_of_assignment2.xlsx
+++ b/Manual_Testing/Assignments/Module2/practicals_of_assignment2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Testing\Manual_Testing\Assignments\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92BA962-9908-4181-AD30-FDE8FEDA87D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12D9EB-6D77-479C-B836-0C5D254FE504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{5C015C95-76A9-447A-9583-B0DCA41A410E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{5C015C95-76A9-447A-9583-B0DCA41A410E}"/>
   </bookViews>
   <sheets>
     <sheet name="instagramhlrreport" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="269">
   <si>
     <t>Functionality Id</t>
   </si>
@@ -700,13 +700,7 @@
     <t>Status[Pass/fail]</t>
   </si>
   <si>
-    <t>TC12</t>
-  </si>
-  <si>
     <t>Contact Form</t>
-  </si>
-  <si>
-    <t>Verity maximum strength of the Name text field</t>
   </si>
   <si>
     <t>1) open the web browser
@@ -715,9 +709,6 @@
 4) enter your details</t>
   </si>
   <si>
-    <t>TC13</t>
-  </si>
-  <si>
     <t>Check get from microsoft store button</t>
   </si>
   <si>
@@ -758,6 +749,159 @@
   </si>
   <si>
     <t>While clicking on same option, user will be redirected to the help center page</t>
+  </si>
+  <si>
+    <t>Verity maximum strength of the Name text field, First Name and Last Name</t>
+  </si>
+  <si>
+    <t>This field will accept large amount of texts</t>
+  </si>
+  <si>
+    <t>Verify maximum strength of the email field</t>
+  </si>
+  <si>
+    <t>Verify maximum strength of the subject field</t>
+  </si>
+  <si>
+    <t>Verify maximum strength of the comment or message field</t>
+  </si>
+  <si>
+    <t>Without filling any data click on submit button</t>
+  </si>
+  <si>
+    <t>1) open the web browser
+2) write the URL : http://www.artoftesting.com
+3) click on contact us option 
+4) Click on submit button without filling any data</t>
+  </si>
+  <si>
+    <t>if the field is null, then the message will be generated that :  "This field is required"</t>
+  </si>
+  <si>
+    <t>Entering numbers in email field</t>
+  </si>
+  <si>
+    <t>First Name : Null
+Last Name : Null
+Email : Null
+Subject : Null
+Comment or Message : Null</t>
+  </si>
+  <si>
+    <t>Error message will be generated : "Please enter valid email id"</t>
+  </si>
+  <si>
+    <t>Email : 20118010</t>
+  </si>
+  <si>
+    <t>Entering special characters in email field</t>
+  </si>
+  <si>
+    <t>Email : [!@#$%^&amp;*]</t>
+  </si>
+  <si>
+    <t>Enterring invalid format of email id</t>
+  </si>
+  <si>
+    <t>Email : vikasgmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that, the subject accepts numbers, letters special characters </t>
+  </si>
+  <si>
+    <t>Subject : vikas 201180107509 [!@#$%^&amp;*()]</t>
+  </si>
+  <si>
+    <t>Response will be submitted</t>
+  </si>
+  <si>
+    <t>Verify that, the comment or message field accepts numbers, letters and special characters</t>
+  </si>
+  <si>
+    <t>Comment of Message : vikas 99148287 [!@#$%^&amp;*()]</t>
+  </si>
+  <si>
+    <t>Check the submit button</t>
+  </si>
+  <si>
+    <t>First Name : Vikas
+Last Name : Vaghela
+Email : vikascsc99@gmail.com
+Subject : Hello World
+Comment or Message : I need more articles about selenium. Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the all fields are valid, response will be submitted </t>
+  </si>
+  <si>
+    <t>Verify that on downloading the Whatsapp application, users can register using a new mobile number.</t>
+  </si>
+  <si>
+    <t>1) http://www.whatsapp.com
+2) Press enter
+3) Register witho your mobile number</t>
+  </si>
+  <si>
+    <t>Mobile Number : 9601476734</t>
+  </si>
+  <si>
+    <t>Phone number will be registered and and account will be created</t>
+  </si>
+  <si>
+    <t>Verify that for a new mobile number user will get a verification code on his mobile and filling in the same verifies the new user account.</t>
+  </si>
+  <si>
+    <t>Mobile Number : 9601476734
+Verification Code : WXY2-R837</t>
+  </si>
+  <si>
+    <t>Device will be linked o the whatsapp</t>
+  </si>
+  <si>
+    <t>System will show the message : The account is already exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification Code time out will be increased one hour </t>
+  </si>
+  <si>
+    <t>Verify that registering an existing mobile number for new user account registration is not allowed.</t>
+  </si>
+  <si>
+    <t>Check the maximum number of incorrect attempts allowed while filling out the verification code.</t>
+  </si>
+  <si>
+    <t>Verify that user can login in web whatsapp via QR Code</t>
+  </si>
+  <si>
+    <t>1) http://www.whatsapp.com
+2) Press enter
+3) Click on linked devices on mobile 
+3) Scan the QR Code from web whatsapp</t>
+  </si>
+  <si>
+    <t>Verify maximum QR Code scanning time</t>
+  </si>
+  <si>
+    <t>System will block user for 1 hour or more as per the multiple attempts</t>
+  </si>
+  <si>
+    <t>Verify with wrong verification code</t>
+  </si>
+  <si>
+    <t>1) http://www.whatsapp.com
+2) Press enter
+3) Register witho your mobile number
+4) Enter verification code</t>
+  </si>
+  <si>
+    <t>Mobile Number :9601476734
+Verification Code : XY2C-7AY8</t>
+  </si>
+  <si>
+    <t>Whatsapp Web</t>
+  </si>
+  <si>
+    <t>Login will be failed</t>
   </si>
 </sst>
 </file>
@@ -768,22 +912,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -805,6 +933,19 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,7 +973,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -845,30 +985,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1332,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,13 +1343,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1212,10 +1357,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1223,10 +1368,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1237,7 +1382,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1245,10 +1390,10 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1256,10 +1401,10 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1267,10 +1412,10 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1278,10 +1423,10 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1289,10 +1434,10 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1300,10 +1445,10 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1311,10 +1456,10 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1322,10 +1467,10 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1333,10 +1478,10 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1344,10 +1489,10 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1355,10 +1500,10 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1366,10 +1511,10 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1377,7 +1522,7 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1385,10 +1530,10 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1396,10 +1541,10 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1407,10 +1552,10 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1418,10 +1563,10 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1429,10 +1574,10 @@
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1446,7 +1591,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,13 +1602,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1471,10 +1616,10 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1482,10 +1627,10 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1493,10 +1638,10 @@
       <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1504,10 +1649,10 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1515,10 +1660,10 @@
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1526,10 +1671,10 @@
       <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1537,10 +1682,10 @@
       <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1548,10 +1693,10 @@
       <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1559,10 +1704,10 @@
       <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1570,10 +1715,10 @@
       <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1581,40 +1726,40 @@
       <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,7 +1771,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,13 +1782,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1651,102 +1796,102 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>215</v>
+      <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>217</v>
+      <c r="B3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>219</v>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>221</v>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>223</v>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>225</v>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>227</v>
+      <c r="B8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,7 +1903,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,215 +1919,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C7962E-8868-4219-9D32-9722059067AC}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,383 +2251,383 @@
     <col min="11" max="11" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,7 +2639,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2411,13 +2650,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2497,7 +2736,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,219 +2752,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2736,308 +3111,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664283BF-459F-4E67-BF53-C4130894BDA0}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>112</v>
       </c>
     </row>

--- a/Manual_Testing/Assignments/Module2/practicals_of_assignment2.xlsx
+++ b/Manual_Testing/Assignments/Module2/practicals_of_assignment2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Testing\Manual_Testing\Assignments\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12D9EB-6D77-479C-B836-0C5D254FE504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBDC186-E9C0-4F94-93CD-85436CDC186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{5C015C95-76A9-447A-9583-B0DCA41A410E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{5C015C95-76A9-447A-9583-B0DCA41A410E}"/>
   </bookViews>
   <sheets>
     <sheet name="instagramhlrreport" sheetId="2" r:id="rId1"/>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C7962E-8868-4219-9D32-9722059067AC}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B188191-0001-4A39-92F5-738680DA4ED8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
